--- a/2021/2021_kulon_pontok.xlsx
+++ b/2021/2021_kulon_pontok.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E05A9-E91E-4CF5-A0B1-967F3D6D03D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABC62D4-99A1-428E-929C-80EE1D226158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA9E448C-B1CF-4675-A22D-85CC57A16407}"/>
   </bookViews>
@@ -3230,7 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3A92DF-2317-41D5-8590-A5F42D0F0ADF}">
   <dimension ref="A1:ED71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DC35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="DD35" workbookViewId="0">
       <selection activeCell="ED2" sqref="ED2:ED71"/>
     </sheetView>
   </sheetViews>
@@ -3856,8 +3856,8 @@
         <v>7</v>
       </c>
       <c r="ED2">
-        <f>$C2+$I2+$L2+$O2+$R2+$U2+$X2+$AA2+$AD2+$AG2+$AJ2+$AM2+$AP2</f>
-        <v>13</v>
+        <f>$C2++$F2+$I2+$L2+$O2+$R2+$U2+$X2+$AA2+$AD2+$AG2+$AJ2+$AM2+$AP2</f>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:134" x14ac:dyDescent="0.25">
@@ -4258,8 +4258,8 @@
         <v>7</v>
       </c>
       <c r="ED3">
-        <f>$C3+$I3+$L3+$O3+$R3+$U3+$X3+$AA3+$AD3+$AG3+$AJ3+$AM3+$AP3</f>
-        <v>12</v>
+        <f>$C3++$F3+$I3+$L3+$O3+$R3+$U3+$X3+$AA3+$AD3+$AG3+$AJ3+$AM3+$AP3</f>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:134" x14ac:dyDescent="0.25">
@@ -4660,8 +4660,8 @@
         <v>7</v>
       </c>
       <c r="ED4">
-        <f t="shared" ref="ED4:ED67" si="0">$C4+$I4+$L4+$O4+$R4+$U4+$X4+$AA4+$AD4+$AG4+$AJ4+$AM4+$AP4</f>
-        <v>11</v>
+        <f t="shared" ref="ED4:ED67" si="0">$C4++$F4+$I4+$L4+$O4+$R4+$U4+$X4+$AA4+$AD4+$AG4+$AJ4+$AM4+$AP4</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:134" x14ac:dyDescent="0.25">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="ED5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:134" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="ED6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:134" x14ac:dyDescent="0.25">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="ED7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:134" x14ac:dyDescent="0.25">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="ED8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:134" x14ac:dyDescent="0.25">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="ED9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:134" x14ac:dyDescent="0.25">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="ED10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:134" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="ED11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:134" x14ac:dyDescent="0.25">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="ED12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:134" x14ac:dyDescent="0.25">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="ED13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:134" x14ac:dyDescent="0.25">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="ED14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:134" x14ac:dyDescent="0.25">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="ED15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:134" x14ac:dyDescent="0.25">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="ED16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:134" x14ac:dyDescent="0.25">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="ED17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:134" x14ac:dyDescent="0.25">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="ED20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:134" x14ac:dyDescent="0.25">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="ED21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:134" x14ac:dyDescent="0.25">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="ED22">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:134" x14ac:dyDescent="0.25">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="ED23">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:134" x14ac:dyDescent="0.25">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="ED24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:134" x14ac:dyDescent="0.25">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="ED26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:134" x14ac:dyDescent="0.25">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="ED27">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:134" x14ac:dyDescent="0.25">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="ED29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:134" x14ac:dyDescent="0.25">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="ED30">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:134" x14ac:dyDescent="0.25">
@@ -15465,7 +15465,7 @@
       </c>
       <c r="ED31">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:134" x14ac:dyDescent="0.25">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="ED33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:134" x14ac:dyDescent="0.25">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="ED35">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:134" x14ac:dyDescent="0.25">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="ED36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:134" x14ac:dyDescent="0.25">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="ED37">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:134" x14ac:dyDescent="0.25">
@@ -18233,7 +18233,7 @@
       </c>
       <c r="ED38">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:134" x14ac:dyDescent="0.25">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="ED40">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:134" x14ac:dyDescent="0.25">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="ED41">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:134" x14ac:dyDescent="0.25">
@@ -20217,7 +20217,7 @@
       </c>
       <c r="ED43">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:134" x14ac:dyDescent="0.25">
@@ -20605,7 +20605,7 @@
       </c>
       <c r="ED44">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:134" x14ac:dyDescent="0.25">
@@ -21387,7 +21387,7 @@
       </c>
       <c r="ED46">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:134" x14ac:dyDescent="0.25">
@@ -21789,7 +21789,7 @@
       </c>
       <c r="ED47">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:134" x14ac:dyDescent="0.25">
@@ -22187,7 +22187,7 @@
       </c>
       <c r="ED48">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:134" x14ac:dyDescent="0.25">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="ED51">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:134" x14ac:dyDescent="0.25">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="ED52">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:134" x14ac:dyDescent="0.25">
@@ -24185,7 +24185,7 @@
       </c>
       <c r="ED53">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:134" x14ac:dyDescent="0.25">
@@ -24581,7 +24581,7 @@
       </c>
       <c r="ED54">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:134" x14ac:dyDescent="0.25">
@@ -25361,7 +25361,7 @@
       </c>
       <c r="ED56">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:134" x14ac:dyDescent="0.25">
@@ -25763,7 +25763,7 @@
       </c>
       <c r="ED57">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:134" x14ac:dyDescent="0.25">
@@ -26165,7 +26165,7 @@
       </c>
       <c r="ED58">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:134" x14ac:dyDescent="0.25">
@@ -26561,7 +26561,7 @@
       </c>
       <c r="ED59">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:134" x14ac:dyDescent="0.25">
@@ -26951,7 +26951,7 @@
       </c>
       <c r="ED60">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:134" x14ac:dyDescent="0.25">
@@ -28153,7 +28153,7 @@
       </c>
       <c r="ED63">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:134" x14ac:dyDescent="0.25">
@@ -28555,7 +28555,7 @@
       </c>
       <c r="ED64">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:134" x14ac:dyDescent="0.25">
@@ -30114,7 +30114,7 @@
         <v>2</v>
       </c>
       <c r="ED68">
-        <f t="shared" ref="ED68:ED71" si="1">$C68+$I68+$L68+$O68+$R68+$U68+$X68+$AA68+$AD68+$AG68+$AJ68+$AM68+$AP68</f>
+        <f t="shared" ref="ED68:ED71" si="1">$C68++$F68+$I68+$L68+$O68+$R68+$U68+$X68+$AA68+$AD68+$AG68+$AJ68+$AM68+$AP68</f>
         <v>3</v>
       </c>
     </row>
@@ -30509,7 +30509,7 @@
       </c>
       <c r="ED69">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:134" x14ac:dyDescent="0.25">
@@ -31234,6 +31234,41 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="CP1:CR1"/>
+    <mergeCell ref="CS1:CU1"/>
+    <mergeCell ref="CV1:CX1"/>
+    <mergeCell ref="CY1:DA1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="CJ1:CL1"/>
     <mergeCell ref="DW1:DY1"/>
     <mergeCell ref="DZ1:EB1"/>
     <mergeCell ref="DB1:DD1"/>
@@ -31243,41 +31278,6 @@
     <mergeCell ref="DN1:DP1"/>
     <mergeCell ref="DQ1:DS1"/>
     <mergeCell ref="DT1:DV1"/>
-    <mergeCell ref="BX1:BZ1"/>
-    <mergeCell ref="CA1:CC1"/>
-    <mergeCell ref="CD1:CF1"/>
-    <mergeCell ref="CG1:CI1"/>
-    <mergeCell ref="CJ1:CL1"/>
-    <mergeCell ref="CM1:CO1"/>
-    <mergeCell ref="CP1:CR1"/>
-    <mergeCell ref="CS1:CU1"/>
-    <mergeCell ref="CV1:CX1"/>
-    <mergeCell ref="CY1:DA1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
